--- a/data/trans_dic/P38C-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Dificultad-trans_dic.xlsx
@@ -612,19 +612,19 @@
         <v>0.7926959677946022</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.6780725895372784</v>
+        <v>0.6780725895372786</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.8710637097875942</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.846648780791818</v>
+        <v>0.8466487807918178</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.8342746168866089</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.7717364494887091</v>
+        <v>0.7717364494887092</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7688892201502752</v>
+        <v>0.7686750755138783</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6255227200782193</v>
+        <v>0.624530673861046</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8492181125820157</v>
+        <v>0.8521737358090139</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8146934468336023</v>
+        <v>0.814235123194587</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8171770494179955</v>
+        <v>0.8188180733550439</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7435792422917935</v>
+        <v>0.7441975177509074</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8183164042615501</v>
+        <v>0.8161605347534939</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7266059832908717</v>
+        <v>0.728126967162549</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8885854637713422</v>
+        <v>0.887716293518255</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8748398642850366</v>
+        <v>0.8746669909262054</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.848950675379147</v>
+        <v>0.8486625681381151</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7986993094259175</v>
+        <v>0.8013168799982761</v>
       </c>
     </row>
     <row r="7">
@@ -700,13 +700,13 @@
         <v>0.876438791840395</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8569036628544429</v>
+        <v>0.8569036628544426</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.8420665750322799</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.81968165020387</v>
+        <v>0.8196816502038698</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.77628257445541</v>
+        <v>0.7771078153595571</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7389940277873307</v>
+        <v>0.7383162342321168</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8541486808088374</v>
+        <v>0.8539050628974193</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8344886102616083</v>
+        <v>0.8329814101170276</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8243824341873945</v>
+        <v>0.8241566923057561</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7991124369126897</v>
+        <v>0.7979372796826886</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8293647753633647</v>
+        <v>0.8307275098697509</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8080336614732891</v>
+        <v>0.8111524129366338</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.896169129750323</v>
+        <v>0.894622922575907</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8772158592499338</v>
+        <v>0.8765731706759037</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8595702984116884</v>
+        <v>0.857662007465421</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.838915010868957</v>
+        <v>0.838388317742283</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +776,7 @@
         <v>0.8601942204434639</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.844269563745812</v>
+        <v>0.8442695637458119</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.905040075479541</v>
@@ -788,7 +788,7 @@
         <v>0.8819048487608361</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.8570686568817405</v>
+        <v>0.8570686568817403</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8339211800636528</v>
+        <v>0.8331039688323186</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8152533699004375</v>
+        <v>0.8158618959147498</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8840646571915262</v>
+        <v>0.8826862760098619</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8469182445242485</v>
+        <v>0.84854798382703</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8652135935918723</v>
+        <v>0.8656572267323844</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8394520206192643</v>
+        <v>0.8388523727518832</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8844062457927305</v>
+        <v>0.8839709996573565</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8710897931307403</v>
+        <v>0.8704086231185059</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9249557689805132</v>
+        <v>0.9237195591900852</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8891222647729841</v>
+        <v>0.8881413638878505</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8983128852571866</v>
+        <v>0.8976810336793773</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.874730122338657</v>
+        <v>0.8740032603589764</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0.8319075903896559</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8831409856682751</v>
+        <v>0.8831409856682753</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.8199351471760409</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7701809786632343</v>
+        <v>0.7693559547555021</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7871952960864395</v>
+        <v>0.7906010877253589</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7940607300541452</v>
+        <v>0.7958095920493735</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8581479182328611</v>
+        <v>0.8556750420490578</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7957663313388084</v>
+        <v>0.7917981080153981</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8325027100764638</v>
+        <v>0.8335395828460135</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8411693478375696</v>
+        <v>0.8437295201592745</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8479792872436274</v>
+        <v>0.8507671162444082</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.86079780895285</v>
+        <v>0.865212504715117</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9042013562333746</v>
+        <v>0.9028348654579225</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8439511025802459</v>
+        <v>0.8436680639529632</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8706681654035179</v>
+        <v>0.8708553022097433</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +940,7 @@
         <v>0.8145794368083996</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7958031310333247</v>
+        <v>0.7958031310333248</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.8746088411136995</v>
@@ -952,7 +952,7 @@
         <v>0.845379768681203</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.8315371157627506</v>
+        <v>0.8315371157627505</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.80087746035157</v>
+        <v>0.8007360423710295</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7783061197452397</v>
+        <v>0.7770348021680257</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8640912970375723</v>
+        <v>0.8624599677611733</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8527651045257711</v>
+        <v>0.8522662524431904</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8358328139991308</v>
+        <v>0.8367140026220028</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8210692444436672</v>
+        <v>0.8214796894938035</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8275277037630775</v>
+        <v>0.8269974593465096</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8122905941383755</v>
+        <v>0.8120663056843046</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8853704871625864</v>
+        <v>0.8859887455872495</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8771193571358901</v>
+        <v>0.8764080743154902</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8539180299919114</v>
+        <v>0.8532138767509578</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8411082966279598</v>
+        <v>0.8417440165765619</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>854822</v>
+        <v>854584</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>311973</v>
+        <v>311478</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1067043</v>
+        <v>1070757</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>508027</v>
+        <v>507741</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1935290</v>
+        <v>1939177</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>834534</v>
+        <v>835228</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>909773</v>
+        <v>907376</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>362387</v>
+        <v>363145</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1116509</v>
+        <v>1115416</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>545533</v>
+        <v>545425</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>2010538</v>
+        <v>2009856</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>896396</v>
+        <v>899334</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>701566</v>
+        <v>702312</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>709536</v>
+        <v>708885</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>858886</v>
+        <v>858641</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>929082</v>
+        <v>927404</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1573992</v>
+        <v>1573561</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1656953</v>
+        <v>1654517</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>749539</v>
+        <v>750771</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>775823</v>
+        <v>778817</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>901139</v>
+        <v>899585</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>976653</v>
+        <v>975937</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1641176</v>
+        <v>1637532</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1739484</v>
+        <v>1738391</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>679303</v>
+        <v>678637</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>851985</v>
+        <v>852621</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>675805</v>
+        <v>674751</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>884389</v>
+        <v>886091</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1366188</v>
+        <v>1366888</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1753866</v>
+        <v>1752613</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>720428</v>
+        <v>720073</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>910337</v>
+        <v>909625</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>707063</v>
+        <v>706118</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>928461</v>
+        <v>927436</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1418452</v>
+        <v>1417455</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1827573</v>
+        <v>1826054</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>385754</v>
+        <v>385341</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>768247</v>
+        <v>771571</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>383967</v>
+        <v>384813</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>775719</v>
+        <v>773483</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>783361</v>
+        <v>779455</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1565000</v>
+        <v>1566949</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>421310</v>
+        <v>422592</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>827568</v>
+        <v>830288</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>416238</v>
+        <v>418373</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>817348</v>
+        <v>816113</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>830795</v>
+        <v>830516</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1636746</v>
+        <v>1637098</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2667694</v>
+        <v>2667223</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2708396</v>
+        <v>2703972</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3032983</v>
+        <v>3027257</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3142545</v>
+        <v>3140707</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>5717924</v>
+        <v>5723952</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5882948</v>
+        <v>5885889</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2756465</v>
+        <v>2754699</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2826658</v>
+        <v>2825877</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3107673</v>
+        <v>3109844</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>3232294</v>
+        <v>3229672</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5841645</v>
+        <v>5836828</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>6026527</v>
+        <v>6031082</v>
       </c>
     </row>
     <row r="24">
